--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efnb3-Ephb4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efnb3-Ephb4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Efnb3</t>
+  </si>
+  <si>
+    <t>Ephb4</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Efnb3</t>
-  </si>
-  <si>
-    <t>Ephb4</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.4197443333333333</v>
+        <v>0.5905326666666667</v>
       </c>
       <c r="H2">
-        <v>1.259233</v>
+        <v>1.771598</v>
       </c>
       <c r="I2">
-        <v>0.2116780627795936</v>
+        <v>0.504014252159901</v>
       </c>
       <c r="J2">
-        <v>0.2116780627795937</v>
+        <v>0.5040142521599009</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.000423</v>
+        <v>34.82273866666667</v>
       </c>
       <c r="N2">
-        <v>99.00126899999999</v>
+        <v>104.468216</v>
       </c>
       <c r="O2">
-        <v>0.7430839250895138</v>
+        <v>0.7026863693863559</v>
       </c>
       <c r="P2">
-        <v>0.7430839250895138</v>
+        <v>0.702686369386356</v>
       </c>
       <c r="Q2">
-        <v>13.851740551853</v>
+        <v>20.56396472546311</v>
       </c>
       <c r="R2">
-        <v>124.665664966677</v>
+        <v>185.075682529168</v>
       </c>
       <c r="S2">
-        <v>0.1572945657456049</v>
+        <v>0.3541639449692201</v>
       </c>
       <c r="T2">
-        <v>0.157294565745605</v>
+        <v>0.3541639449692201</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.4197443333333333</v>
+        <v>0.5905326666666667</v>
       </c>
       <c r="H3">
-        <v>1.259233</v>
+        <v>1.771598</v>
       </c>
       <c r="I3">
-        <v>0.2116780627795936</v>
+        <v>0.504014252159901</v>
       </c>
       <c r="J3">
-        <v>0.2116780627795937</v>
+        <v>0.5040142521599009</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>25.605727</v>
       </c>
       <c r="O3">
-        <v>0.1921915175039882</v>
+        <v>0.1722322446965897</v>
       </c>
       <c r="P3">
-        <v>0.1921915175039882</v>
+        <v>0.1722322446965897</v>
       </c>
       <c r="Q3">
-        <v>3.582619603043445</v>
+        <v>5.040339415749557</v>
       </c>
       <c r="R3">
-        <v>32.24357642739101</v>
+        <v>45.36305474174601</v>
       </c>
       <c r="S3">
-        <v>0.04068272810791457</v>
+        <v>0.08680750600857275</v>
       </c>
       <c r="T3">
-        <v>0.04068272810791459</v>
+        <v>0.08680750600857273</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.4197443333333333</v>
+        <v>0.5905326666666667</v>
       </c>
       <c r="H4">
-        <v>1.259233</v>
+        <v>1.771598</v>
       </c>
       <c r="I4">
-        <v>0.2116780627795936</v>
+        <v>0.504014252159901</v>
       </c>
       <c r="J4">
-        <v>0.2116780627795937</v>
+        <v>0.5040142521599009</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.82036</v>
+        <v>6.169951999999999</v>
       </c>
       <c r="N4">
-        <v>8.461080000000001</v>
+        <v>18.509856</v>
       </c>
       <c r="O4">
-        <v>0.06350719137646997</v>
+        <v>0.1245031647760143</v>
       </c>
       <c r="P4">
-        <v>0.06350719137646997</v>
+        <v>0.1245031647760143</v>
       </c>
       <c r="Q4">
-        <v>1.18383012796</v>
+        <v>3.643558207765333</v>
       </c>
       <c r="R4">
-        <v>10.65447115164</v>
+        <v>32.792023869888</v>
       </c>
       <c r="S4">
-        <v>0.01344307924314408</v>
+        <v>0.06275136948612378</v>
       </c>
       <c r="T4">
-        <v>0.01344307924314408</v>
+        <v>0.0627513694861238</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.4197443333333333</v>
+        <v>0.5905326666666667</v>
       </c>
       <c r="H5">
-        <v>1.259233</v>
+        <v>1.771598</v>
       </c>
       <c r="I5">
-        <v>0.2116780627795936</v>
+        <v>0.504014252159901</v>
       </c>
       <c r="J5">
-        <v>0.2116780627795937</v>
+        <v>0.5040142521599009</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.05406333333333333</v>
+        <v>0.02865466666666667</v>
       </c>
       <c r="N5">
-        <v>0.16219</v>
+        <v>0.085964</v>
       </c>
       <c r="O5">
-        <v>0.001217366030028042</v>
+        <v>0.000578221141039957</v>
       </c>
       <c r="P5">
-        <v>0.001217366030028042</v>
+        <v>0.0005782211410399571</v>
       </c>
       <c r="Q5">
-        <v>0.02269277780777778</v>
+        <v>0.01692151671911111</v>
       </c>
       <c r="R5">
-        <v>0.20423500027</v>
+        <v>0.152293650472</v>
       </c>
       <c r="S5">
-        <v>0.0002576896829300205</v>
+        <v>0.0002914316959842986</v>
       </c>
       <c r="T5">
-        <v>0.0002576896829300206</v>
+        <v>0.0002914316959842986</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5905326666666667</v>
+        <v>0.55299</v>
       </c>
       <c r="H6">
-        <v>1.771598</v>
+        <v>1.65897</v>
       </c>
       <c r="I6">
-        <v>0.297807024326874</v>
+        <v>0.4719719281155831</v>
       </c>
       <c r="J6">
-        <v>0.2978070243268741</v>
+        <v>0.4719719281155832</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.000423</v>
+        <v>34.82273866666667</v>
       </c>
       <c r="N6">
-        <v>99.00126899999999</v>
+        <v>104.468216</v>
       </c>
       <c r="O6">
-        <v>0.7430839250895138</v>
+        <v>0.7026863693863559</v>
       </c>
       <c r="P6">
-        <v>0.7430839250895138</v>
+        <v>0.702686369386356</v>
       </c>
       <c r="Q6">
-        <v>19.487827795318</v>
+        <v>19.25662625528</v>
       </c>
       <c r="R6">
-        <v>175.390450157862</v>
+        <v>173.30963629752</v>
       </c>
       <c r="S6">
-        <v>0.2212956125560419</v>
+        <v>0.3316482406198172</v>
       </c>
       <c r="T6">
-        <v>0.2212956125560419</v>
+        <v>0.3316482406198173</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5905326666666667</v>
+        <v>0.55299</v>
       </c>
       <c r="H7">
-        <v>1.771598</v>
+        <v>1.65897</v>
       </c>
       <c r="I7">
-        <v>0.297807024326874</v>
+        <v>0.4719719281155831</v>
       </c>
       <c r="J7">
-        <v>0.2978070243268741</v>
+        <v>0.4719719281155832</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>25.605727</v>
       </c>
       <c r="O7">
-        <v>0.1921915175039882</v>
+        <v>0.1722322446965897</v>
       </c>
       <c r="P7">
-        <v>0.1921915175039882</v>
+        <v>0.1722322446965897</v>
       </c>
       <c r="Q7">
-        <v>5.040339415749557</v>
+        <v>4.719903657910001</v>
       </c>
       <c r="R7">
-        <v>45.36305474174601</v>
+        <v>42.47913292119001</v>
       </c>
       <c r="S7">
-        <v>0.05723598392872904</v>
+        <v>0.08128878461312436</v>
       </c>
       <c r="T7">
-        <v>0.05723598392872905</v>
+        <v>0.08128878461312439</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5905326666666667</v>
+        <v>0.55299</v>
       </c>
       <c r="H8">
-        <v>1.771598</v>
+        <v>1.65897</v>
       </c>
       <c r="I8">
-        <v>0.297807024326874</v>
+        <v>0.4719719281155831</v>
       </c>
       <c r="J8">
-        <v>0.2978070243268741</v>
+        <v>0.4719719281155832</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.82036</v>
+        <v>6.169951999999999</v>
       </c>
       <c r="N8">
-        <v>8.461080000000001</v>
+        <v>18.509856</v>
       </c>
       <c r="O8">
-        <v>0.06350719137646997</v>
+        <v>0.1245031647760143</v>
       </c>
       <c r="P8">
-        <v>0.06350719137646997</v>
+        <v>0.1245031647760143</v>
       </c>
       <c r="Q8">
-        <v>1.66551471176</v>
+        <v>3.41192175648</v>
       </c>
       <c r="R8">
-        <v>14.98963240584</v>
+        <v>30.70729580832</v>
       </c>
       <c r="S8">
-        <v>0.01891288768718383</v>
+        <v>0.05876199873582763</v>
       </c>
       <c r="T8">
-        <v>0.01891288768718384</v>
+        <v>0.05876199873582765</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +956,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5905326666666667</v>
+        <v>0.55299</v>
       </c>
       <c r="H9">
-        <v>1.771598</v>
+        <v>1.65897</v>
       </c>
       <c r="I9">
-        <v>0.297807024326874</v>
+        <v>0.4719719281155831</v>
       </c>
       <c r="J9">
-        <v>0.2978070243268741</v>
+        <v>0.4719719281155832</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.05406333333333333</v>
+        <v>0.02865466666666667</v>
       </c>
       <c r="N9">
-        <v>0.16219</v>
+        <v>0.085964</v>
       </c>
       <c r="O9">
-        <v>0.001217366030028042</v>
+        <v>0.000578221141039957</v>
       </c>
       <c r="P9">
-        <v>0.001217366030028042</v>
+        <v>0.0005782211410399571</v>
       </c>
       <c r="Q9">
-        <v>0.03192616440222222</v>
+        <v>0.01584574412</v>
       </c>
       <c r="R9">
-        <v>0.28733547962</v>
+        <v>0.14261169708</v>
       </c>
       <c r="S9">
-        <v>0.0003625401549192711</v>
+        <v>0.0002729041468138211</v>
       </c>
       <c r="T9">
-        <v>0.0003625401549192712</v>
+        <v>0.0002729041468138212</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1018,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.8168243333333334</v>
+        <v>0.028136</v>
       </c>
       <c r="H10">
-        <v>2.450473</v>
+        <v>0.084408</v>
       </c>
       <c r="I10">
-        <v>0.411926448507702</v>
+        <v>0.0240138197245159</v>
       </c>
       <c r="J10">
-        <v>0.4119264485077021</v>
+        <v>0.0240138197245159</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.000423</v>
+        <v>34.82273866666667</v>
       </c>
       <c r="N10">
-        <v>99.00126899999999</v>
+        <v>104.468216</v>
       </c>
       <c r="O10">
-        <v>0.7430839250895138</v>
+        <v>0.7026863693863559</v>
       </c>
       <c r="P10">
-        <v>0.7430839250895138</v>
+        <v>0.702686369386356</v>
       </c>
       <c r="Q10">
-        <v>26.955548516693</v>
+        <v>0.9797725751253332</v>
       </c>
       <c r="R10">
-        <v>242.599936650237</v>
+        <v>8.817953176128</v>
       </c>
       <c r="S10">
-        <v>0.3060959222052867</v>
+        <v>0.01687418379731854</v>
       </c>
       <c r="T10">
-        <v>0.3060959222052868</v>
+        <v>0.01687418379731854</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,31 +1080,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.8168243333333334</v>
+        <v>0.028136</v>
       </c>
       <c r="H11">
-        <v>2.450473</v>
+        <v>0.084408</v>
       </c>
       <c r="I11">
-        <v>0.411926448507702</v>
+        <v>0.0240138197245159</v>
       </c>
       <c r="J11">
-        <v>0.4119264485077021</v>
+        <v>0.0240138197245159</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>25.605727</v>
       </c>
       <c r="O11">
-        <v>0.1921915175039882</v>
+        <v>0.1722322446965897</v>
       </c>
       <c r="P11">
-        <v>0.1921915175039882</v>
+        <v>0.1722322446965897</v>
       </c>
       <c r="Q11">
-        <v>6.971793628763446</v>
+        <v>0.2401475782906667</v>
       </c>
       <c r="R11">
-        <v>62.74614265887101</v>
+        <v>2.161328204616</v>
       </c>
       <c r="S11">
-        <v>0.07916876923872369</v>
+        <v>0.004135954074892615</v>
       </c>
       <c r="T11">
-        <v>0.07916876923872372</v>
+        <v>0.004135954074892615</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.8168243333333334</v>
+        <v>0.028136</v>
       </c>
       <c r="H12">
-        <v>2.450473</v>
+        <v>0.084408</v>
       </c>
       <c r="I12">
-        <v>0.411926448507702</v>
+        <v>0.0240138197245159</v>
       </c>
       <c r="J12">
-        <v>0.4119264485077021</v>
+        <v>0.0240138197245159</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.82036</v>
+        <v>6.169951999999999</v>
       </c>
       <c r="N12">
-        <v>8.461080000000001</v>
+        <v>18.509856</v>
       </c>
       <c r="O12">
-        <v>0.06350719137646997</v>
+        <v>0.1245031647760143</v>
       </c>
       <c r="P12">
-        <v>0.06350719137646997</v>
+        <v>0.1245031647760143</v>
       </c>
       <c r="Q12">
-        <v>2.303738676760001</v>
+        <v>0.173597769472</v>
       </c>
       <c r="R12">
-        <v>20.73364809084</v>
+        <v>1.562379925248</v>
       </c>
       <c r="S12">
-        <v>0.02616029179840823</v>
+        <v>0.002989796554062905</v>
       </c>
       <c r="T12">
-        <v>0.02616029179840824</v>
+        <v>0.002989796554062907</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,31 +1204,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.8168243333333334</v>
+        <v>0.028136</v>
       </c>
       <c r="H13">
-        <v>2.450473</v>
+        <v>0.084408</v>
       </c>
       <c r="I13">
-        <v>0.411926448507702</v>
+        <v>0.0240138197245159</v>
       </c>
       <c r="J13">
-        <v>0.4119264485077021</v>
+        <v>0.0240138197245159</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,276 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.05406333333333333</v>
+        <v>0.02865466666666667</v>
       </c>
       <c r="N13">
-        <v>0.16219</v>
+        <v>0.085964</v>
       </c>
       <c r="O13">
-        <v>0.001217366030028042</v>
+        <v>0.000578221141039957</v>
       </c>
       <c r="P13">
-        <v>0.001217366030028042</v>
+        <v>0.0005782211410399571</v>
       </c>
       <c r="Q13">
-        <v>0.04416024620777778</v>
+        <v>0.0008062277013333333</v>
       </c>
       <c r="R13">
-        <v>0.39744221587</v>
+        <v>0.007256049311999999</v>
       </c>
       <c r="S13">
-        <v>0.0005014652652833718</v>
+        <v>1.388529824183741E-05</v>
       </c>
       <c r="T13">
-        <v>0.0005014652652833719</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.155836</v>
-      </c>
-      <c r="H14">
-        <v>0.467508</v>
-      </c>
-      <c r="I14">
-        <v>0.07858846438583031</v>
-      </c>
-      <c r="J14">
-        <v>0.07858846438583032</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>33.000423</v>
-      </c>
-      <c r="N14">
-        <v>99.00126899999999</v>
-      </c>
-      <c r="O14">
-        <v>0.7430839250895138</v>
-      </c>
-      <c r="P14">
-        <v>0.7430839250895138</v>
-      </c>
-      <c r="Q14">
-        <v>5.142653918628</v>
-      </c>
-      <c r="R14">
-        <v>46.283885267652</v>
-      </c>
-      <c r="S14">
-        <v>0.05839782458258026</v>
-      </c>
-      <c r="T14">
-        <v>0.05839782458258026</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.155836</v>
-      </c>
-      <c r="H15">
-        <v>0.467508</v>
-      </c>
-      <c r="I15">
-        <v>0.07858846438583031</v>
-      </c>
-      <c r="J15">
-        <v>0.07858846438583032</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>8.535242333333334</v>
-      </c>
-      <c r="N15">
-        <v>25.605727</v>
-      </c>
-      <c r="O15">
-        <v>0.1921915175039882</v>
-      </c>
-      <c r="P15">
-        <v>0.1921915175039882</v>
-      </c>
-      <c r="Q15">
-        <v>1.330098024257333</v>
-      </c>
-      <c r="R15">
-        <v>11.970882218316</v>
-      </c>
-      <c r="S15">
-        <v>0.01510403622862086</v>
-      </c>
-      <c r="T15">
-        <v>0.01510403622862086</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.155836</v>
-      </c>
-      <c r="H16">
-        <v>0.467508</v>
-      </c>
-      <c r="I16">
-        <v>0.07858846438583031</v>
-      </c>
-      <c r="J16">
-        <v>0.07858846438583032</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>2.82036</v>
-      </c>
-      <c r="N16">
-        <v>8.461080000000001</v>
-      </c>
-      <c r="O16">
-        <v>0.06350719137646997</v>
-      </c>
-      <c r="P16">
-        <v>0.06350719137646997</v>
-      </c>
-      <c r="Q16">
-        <v>0.4395136209600001</v>
-      </c>
-      <c r="R16">
-        <v>3.95562258864</v>
-      </c>
-      <c r="S16">
-        <v>0.00499093264773382</v>
-      </c>
-      <c r="T16">
-        <v>0.004990932647733821</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.155836</v>
-      </c>
-      <c r="H17">
-        <v>0.467508</v>
-      </c>
-      <c r="I17">
-        <v>0.07858846438583031</v>
-      </c>
-      <c r="J17">
-        <v>0.07858846438583032</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.05406333333333333</v>
-      </c>
-      <c r="N17">
-        <v>0.16219</v>
-      </c>
-      <c r="O17">
-        <v>0.001217366030028042</v>
-      </c>
-      <c r="P17">
-        <v>0.001217366030028042</v>
-      </c>
-      <c r="Q17">
-        <v>0.008425013613333332</v>
-      </c>
-      <c r="R17">
-        <v>0.07582512252</v>
-      </c>
-      <c r="S17">
-        <v>9.567092689537839E-05</v>
-      </c>
-      <c r="T17">
-        <v>9.567092689537841E-05</v>
+        <v>1.388529824183741E-05</v>
       </c>
     </row>
   </sheetData>
